--- a/AutomationPlanPOM/Excel/register.xlsx
+++ b/AutomationPlanPOM/Excel/register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmohammed25\OneDrive - DXC Production\Documents\ja\AutomationPlanPOM\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\SeleniumProject\SeleniumProject\AutomationPlanPOM\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FDF2A-D3EE-4DD0-8C06-95BC76D4CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0F026F-4D8E-48A1-82AD-63D955F3647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -67,10 +67,16 @@
     <t>te</t>
   </si>
   <si>
-    <t>TESTT1234@gmail.com</t>
-  </si>
-  <si>
     <t>TESTT1345@gmail.com</t>
+  </si>
+  <si>
+    <t>TESTT1234343434s@gmail.com</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -405,17 +411,17 @@
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -455,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -483,17 +489,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,15 +519,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>333</v>
@@ -533,15 +539,15 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>333</v>
